--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/83/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/83/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8308308308308309</v>
+        <v>0.3214321432143215</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1239.239239239239</v>
+        <v>665.4965496549655</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08038038038038038</v>
+        <v>0.01309130913091309</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3573573573573574</v>
+        <v>0.8698869886988699</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1295.295295295295</v>
+        <v>1767.226722672267</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>206.2062062062062</v>
+        <v>972.8172817281728</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>536.5365365365366</v>
+        <v>15.78667866786679</v>
       </c>
     </row>
   </sheetData>
